--- a/.datasets/GlosarioVariables.xlsx
+++ b/.datasets/GlosarioVariables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DD0422-723B-481A-B6CD-91E20624EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF636552-CF7E-4DF2-8553-F9303D60E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30330" yWindow="195" windowWidth="25185" windowHeight="10440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Básicas" sheetId="1" r:id="rId1"/>
@@ -4308,12 +4308,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4383,7 +4382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>499</v>
       </c>
@@ -4417,7 +4416,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>499</v>
       </c>
@@ -4449,7 +4448,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>499</v>
       </c>
@@ -4483,7 +4482,7 @@
       <c r="M5" s="11"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>499</v>
       </c>
@@ -4515,7 +4514,7 @@
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>499</v>
       </c>
@@ -4547,7 +4546,7 @@
       </c>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>499</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>499</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>499</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>499</v>
       </c>
@@ -4699,7 +4698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>499</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>499</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>499</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>499</v>
       </c>
@@ -4823,7 +4822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>499</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>499</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>502</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>502</v>
       </c>
@@ -4949,7 +4948,7 @@
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>502</v>
       </c>
@@ -4981,7 +4980,7 @@
       </c>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>502</v>
       </c>
@@ -5013,7 +5012,7 @@
       </c>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>502</v>
       </c>
@@ -5045,7 +5044,7 @@
       </c>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>502</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>502</v>
       </c>
@@ -5109,7 +5108,7 @@
       <c r="L25" s="26"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>502</v>
       </c>
@@ -5142,7 +5141,7 @@
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>502</v>
       </c>
@@ -5175,7 +5174,7 @@
       <c r="L27" s="27"/>
       <c r="M27" s="27"/>
     </row>
-    <row r="28" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>502</v>
       </c>
@@ -5208,7 +5207,7 @@
       <c r="L28" s="27"/>
       <c r="M28" s="27"/>
     </row>
-    <row r="29" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>502</v>
       </c>
@@ -5237,7 +5236,7 @@
       <c r="L29" s="27"/>
       <c r="M29" s="27"/>
     </row>
-    <row r="30" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>502</v>
       </c>
@@ -5266,7 +5265,7 @@
       <c r="L30" s="27"/>
       <c r="M30" s="27"/>
     </row>
-    <row r="31" spans="1:13" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>502</v>
       </c>
@@ -5299,7 +5298,7 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>502</v>
       </c>
@@ -5332,7 +5331,7 @@
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
     </row>
-    <row r="33" spans="1:13" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>502</v>
       </c>
@@ -5365,7 +5364,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>502</v>
       </c>
@@ -5398,7 +5397,7 @@
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>502</v>
       </c>
@@ -5431,7 +5430,7 @@
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>502</v>
       </c>
@@ -5464,7 +5463,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>502</v>
       </c>
@@ -5496,7 +5495,7 @@
       </c>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:13" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>502</v>
       </c>
@@ -5526,7 +5525,7 @@
       </c>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>502</v>
       </c>
@@ -5557,7 +5556,7 @@
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>502</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>502</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>502</v>
       </c>
@@ -5646,7 +5645,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>502</v>
       </c>
@@ -5675,7 +5674,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>502</v>
       </c>
@@ -5704,7 +5703,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>502</v>
       </c>
@@ -5735,7 +5734,7 @@
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>502</v>
       </c>
@@ -5766,7 +5765,7 @@
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
     </row>
-    <row r="47" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>502</v>
       </c>
@@ -5797,7 +5796,7 @@
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
     </row>
-    <row r="48" spans="1:13" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>502</v>
       </c>
@@ -5828,7 +5827,7 @@
       <c r="L48" s="28"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>502</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>502</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>502</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>502</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
         <v>502</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>502</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
         <v>502</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
         <v>502</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>502</v>
       </c>
@@ -6091,7 +6090,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
         <v>502</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
         <v>502</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
         <v>502</v>
       </c>
@@ -6184,7 +6183,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
         <v>502</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
         <v>502</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
         <v>502</v>
       </c>
@@ -6275,7 +6274,7 @@
       <c r="J63" s="40"/>
       <c r="K63" s="41"/>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" s="43"/>
       <c r="D64" s="44"/>
       <c r="E64" s="43"/>
@@ -6283,7 +6282,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="43"/>
       <c r="D65" s="44"/>
       <c r="E65" s="43"/>
@@ -6292,13 +6291,7 @@
       <c r="J65" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J65" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Caudal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J65" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -6312,7 +6305,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N375"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -18042,7 +18035,7 @@
         <v>37347.510462962964</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="34" t="s">
         <v>498</v>
       </c>
@@ -22233,7 +22226,7 @@
       </c>
       <c r="N29" s="143"/>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="117" t="s">
         <v>716</v>
       </c>
@@ -22669,7 +22662,7 @@
       <c r="M40" s="153"/>
       <c r="N40" s="153"/>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="117" t="s">
         <v>716</v>
       </c>
@@ -22713,7 +22706,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="34.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="117" t="s">
         <v>716</v>
       </c>
